--- a/期末專案/rawdata/玄奘大學.xlsx
+++ b/期末專案/rawdata/玄奘大學.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,76 @@
           <t>採計科目</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>數A</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>數B</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>英聽</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>數甲</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>化學</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>生物</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>公民</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +524,21 @@
           <t>國文(2.00)、歷史(2.00)、地理(1.75)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,6 +556,21 @@
           <t>國文(2.00)、歷史(2.00)、地理(1.75)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +588,21 @@
           <t>國文(2.00)、歷史(2.00)、地理(1.75)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +620,21 @@
           <t>國文(2.00)、歷史(1.50)、地理(1.75)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +652,21 @@
           <t>國文(2.00)、歷史(2.00)、地理(1.75)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +684,21 @@
           <t>國文(2.00)、歷史(2.00)、地理(1.75)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,6 +716,21 @@
           <t>國文(2.00)、歷史(2.00)、地理(1.75)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -571,6 +746,21 @@
       <c r="C9" t="inlineStr">
         <is>
           <t>國文(2.00)、歷史(2.00)、地理(1.75)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.75</t>
         </is>
       </c>
     </row>
